--- a/Phenoloxidase Activity data/58. HEG 8 (91190).xlsx
+++ b/Phenoloxidase Activity data/58. HEG 8 (91190).xlsx
@@ -248,7 +248,6 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -441,11 +440,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="248606168"/>
-        <c:axId val="304951000"/>
+        <c:axId val="388815288"/>
+        <c:axId val="388807840"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="248606168"/>
+        <c:axId val="388815288"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -502,12 +501,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="304951000"/>
+        <c:crossAx val="388807840"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="304951000"/>
+        <c:axId val="388807840"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -564,7 +563,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="248606168"/>
+        <c:crossAx val="388815288"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -628,7 +627,6 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -833,11 +831,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="248999248"/>
-        <c:axId val="248998072"/>
+        <c:axId val="292259736"/>
+        <c:axId val="292260912"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="248999248"/>
+        <c:axId val="292259736"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -894,12 +892,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="248998072"/>
+        <c:crossAx val="292260912"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="248998072"/>
+        <c:axId val="292260912"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -956,7 +954,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="248999248"/>
+        <c:crossAx val="292259736"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1020,7 +1018,6 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -1225,11 +1222,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="248994544"/>
-        <c:axId val="248995328"/>
+        <c:axId val="292259344"/>
+        <c:axId val="292262088"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="248994544"/>
+        <c:axId val="292259344"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1286,12 +1283,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="248995328"/>
+        <c:crossAx val="292262088"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="248995328"/>
+        <c:axId val="292262088"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1348,7 +1345,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="248994544"/>
+        <c:crossAx val="292259344"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1412,7 +1409,6 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -1617,11 +1613,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="248996504"/>
-        <c:axId val="246710112"/>
+        <c:axId val="292261304"/>
+        <c:axId val="292258560"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="248996504"/>
+        <c:axId val="292261304"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1678,12 +1674,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="246710112"/>
+        <c:crossAx val="292258560"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="246710112"/>
+        <c:axId val="292258560"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1740,7 +1736,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="248996504"/>
+        <c:crossAx val="292261304"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1804,7 +1800,6 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -2009,11 +2004,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="246710504"/>
-        <c:axId val="246710896"/>
+        <c:axId val="292258952"/>
+        <c:axId val="292260128"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="246710504"/>
+        <c:axId val="292258952"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2070,12 +2065,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="246710896"/>
+        <c:crossAx val="292260128"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="246710896"/>
+        <c:axId val="292260128"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2132,7 +2127,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="246710504"/>
+        <c:crossAx val="292258952"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -2196,7 +2191,6 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -2401,11 +2395,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="305291272"/>
-        <c:axId val="305289312"/>
+        <c:axId val="392804776"/>
+        <c:axId val="392803992"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="305291272"/>
+        <c:axId val="392804776"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2462,12 +2456,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="305289312"/>
+        <c:crossAx val="392803992"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="305289312"/>
+        <c:axId val="392803992"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2524,7 +2518,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="305291272"/>
+        <c:crossAx val="392804776"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -2588,7 +2582,6 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -2793,11 +2786,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="305288920"/>
-        <c:axId val="305287744"/>
+        <c:axId val="392805168"/>
+        <c:axId val="392807912"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="305288920"/>
+        <c:axId val="392805168"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2854,12 +2847,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="305287744"/>
+        <c:crossAx val="392807912"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="305287744"/>
+        <c:axId val="392807912"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2916,7 +2909,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="305288920"/>
+        <c:crossAx val="392805168"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -2980,7 +2973,6 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -3173,11 +3165,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="248831432"/>
-        <c:axId val="248831816"/>
+        <c:axId val="388809408"/>
+        <c:axId val="388810976"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="248831432"/>
+        <c:axId val="388809408"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3234,12 +3226,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="248831816"/>
+        <c:crossAx val="388810976"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="248831816"/>
+        <c:axId val="388810976"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3296,7 +3288,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="248831432"/>
+        <c:crossAx val="388809408"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -3360,7 +3352,6 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -3553,11 +3544,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="249159336"/>
-        <c:axId val="304988128"/>
+        <c:axId val="388808624"/>
+        <c:axId val="388812152"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="249159336"/>
+        <c:axId val="388808624"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3614,12 +3605,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="304988128"/>
+        <c:crossAx val="388812152"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="304988128"/>
+        <c:axId val="388812152"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3676,7 +3667,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="249159336"/>
+        <c:crossAx val="388808624"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -3740,7 +3731,6 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -3933,11 +3923,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="248067032"/>
-        <c:axId val="248067416"/>
+        <c:axId val="388810192"/>
+        <c:axId val="388811368"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="248067032"/>
+        <c:axId val="388810192"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3994,12 +3984,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="248067416"/>
+        <c:crossAx val="388811368"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="248067416"/>
+        <c:axId val="388811368"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4056,7 +4046,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="248067032"/>
+        <c:crossAx val="388810192"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -4120,7 +4110,6 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -4313,11 +4302,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="248905480"/>
-        <c:axId val="248905864"/>
+        <c:axId val="388808232"/>
+        <c:axId val="388812936"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="248905480"/>
+        <c:axId val="388808232"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4374,12 +4363,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="248905864"/>
+        <c:crossAx val="388812936"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="248905864"/>
+        <c:axId val="388812936"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4436,7 +4425,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="248905480"/>
+        <c:crossAx val="388808232"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -4500,7 +4489,6 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -4693,11 +4681,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="248993760"/>
-        <c:axId val="248996896"/>
+        <c:axId val="388813720"/>
+        <c:axId val="388814112"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="248993760"/>
+        <c:axId val="388813720"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4754,12 +4742,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="248996896"/>
+        <c:crossAx val="388814112"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="248996896"/>
+        <c:axId val="388814112"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4816,7 +4804,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="248993760"/>
+        <c:crossAx val="388813720"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -4880,7 +4868,6 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -5073,11 +5060,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="248992192"/>
-        <c:axId val="248998464"/>
+        <c:axId val="388814896"/>
+        <c:axId val="292262872"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="248992192"/>
+        <c:axId val="388814896"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5134,12 +5121,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="248998464"/>
+        <c:crossAx val="292262872"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="248998464"/>
+        <c:axId val="292262872"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5196,7 +5183,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="248992192"/>
+        <c:crossAx val="388814896"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -5260,7 +5247,6 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -5453,11 +5439,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="248994936"/>
-        <c:axId val="248996112"/>
+        <c:axId val="292264048"/>
+        <c:axId val="292262480"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="248994936"/>
+        <c:axId val="292264048"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5514,12 +5500,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="248996112"/>
+        <c:crossAx val="292262480"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="248996112"/>
+        <c:axId val="292262480"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5576,7 +5562,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="248994936"/>
+        <c:crossAx val="292264048"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -5640,7 +5626,6 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -5833,11 +5818,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="248992584"/>
-        <c:axId val="248998856"/>
+        <c:axId val="292263264"/>
+        <c:axId val="292256992"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="248992584"/>
+        <c:axId val="292263264"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5894,12 +5879,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="248998856"/>
+        <c:crossAx val="292256992"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="248998856"/>
+        <c:axId val="292256992"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5956,7 +5941,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="248992584"/>
+        <c:crossAx val="292263264"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
